--- a/numberSheet/rand3.xlsx
+++ b/numberSheet/rand3.xlsx
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>3</v>
